--- a/biology/Botanique/Augusto_Napoleone_Berlese/Augusto_Napoleone_Berlese.xlsx
+++ b/biology/Botanique/Augusto_Napoleone_Berlese/Augusto_Napoleone_Berlese.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Augusto Napoleone Berlese , né le 21 octobre 1864 à Padoue, et mort le 26 janvier 1903 à Milan, est un botaniste et mycologue italien.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le frère de l'entomologiste Antonio de Berlese 1863-1927, avec qui il fonde la revue Rivista di patologia vegetale en 1892[1]
-Il étudie les sciences naturelles à l'Université de Padoue, où après avoir obtenu son diplôme, il travaille pendant plusieurs années comme assistant botanique (1885-1889). Plus tard, il enseigne à l'école de viticulture d'Avellino (à partir de 1892), puis à l'université de Camerino (à partir de 1895) et de Sassari (à partir de 1899). En 1901, il est nommé professeur de phytopathologie à l'école d'agriculture de Milan[2]
-Le genre mycologique Berlesiella (famille des Herpotrichiellaceae) est nommé en son honneur par Pier Andrea Saccardo[3],[4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le frère de l'entomologiste Antonio de Berlese 1863-1927, avec qui il fonde la revue Rivista di patologia vegetale en 1892
+Il étudie les sciences naturelles à l'Université de Padoue, où après avoir obtenu son diplôme, il travaille pendant plusieurs années comme assistant botanique (1885-1889). Plus tard, il enseigne à l'école de viticulture d'Avellino (à partir de 1892), puis à l'université de Camerino (à partir de 1895) et de Sassari (à partir de 1899). En 1901, il est nommé professeur de phytopathologie à l'école d'agriculture de Milan
+Le genre mycologique Berlesiella (famille des Herpotrichiellaceae) est nommé en son honneur par Pier Andrea Saccardo,
 </t>
         </is>
       </c>
@@ -544,13 +558,15 @@
           <t>Œuvres sélectionnées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Il est l'auteur de la série en plusieurs volumes Icones Fungorum (1890-1905)[5].  Il a également fait d'importantes contributions à Sylloge Fungorum de Saccardo. Voici quelques-unes de ses autres œuvres remarquables :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il est l'auteur de la série en plusieurs volumes Icones Fungorum (1890-1905).  Il a également fait d'importantes contributions à Sylloge Fungorum de Saccardo. Voici quelques-unes de ses autres œuvres remarquables :
 Monografia dei generi Pleospora, Clathrospora e Pyrenophora, 1888 – Monographie sur les genres Pleospora, Clathrospora et Pyrenophora.
 Micromycetes Tridentini : contribuzione allo studio dei funghi microscopici del Trentino (avec Giacomo Bresadola, 1889) – "Micromycetes Trente"; une contribution à l'étude des champignons microscopiques du Trentin.
  Fungi moricolae. Iconografia e descrizione dei funghi parassiti dei gelso, 1889 – Fungi moricolae. Iconographie et description des champignons parasites du  mûrier.
-Je parasiti vegetali delle piante coltivate o utili, 1894 – Parasites végétaux des plantes cultivées ou utiles[6].</t>
+Je parasiti vegetali delle piante coltivate o utili, 1894 – Parasites végétaux des plantes cultivées ou utiles.</t>
         </is>
       </c>
     </row>
